--- a/src/main/resources/static/file/Intr_Schedule.xlsx
+++ b/src/main/resources/static/file/Intr_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongbuem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jongbuem\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89FE6C35-6DBC-4CA7-A9A2-F5036EA59945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C14EF6-8A6F-46A2-BC81-A79099B9E075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{293CC1F1-C7C3-4C8C-9B28-102C477013E5}"/>
+    <workbookView xWindow="1950" yWindow="3255" windowWidth="25200" windowHeight="12735" xr2:uid="{293CC1F1-C7C3-4C8C-9B28-102C477013E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>상환회차</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
   <si>
     <t>시작일</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -47,7 +43,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이자액수</t>
+    <t>이자금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회차</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +520,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -534,22 +534,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
